--- a/Inputs/Input_data.xlsx
+++ b/Inputs/Input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janni\Desktop\KBE_app\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B7D8FB-D0CB-4061-928A-B0763D8B54AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1F164D-1C43-4BB0-A0BC-2FFAEB8B61F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1"/>
     </row>
